--- a/application_data_condensed_unemployed_applicants_df.xlsx
+++ b/application_data_condensed_unemployed_applicants_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="54">
   <si>
     <t>SK_ID_CURR</t>
   </si>
@@ -85,6 +85,9 @@
     <t>ORGANIZATION_TYPE</t>
   </si>
   <si>
+    <t>WEEKEND_APPR_PROCESS_START</t>
+  </si>
+  <si>
     <t>FRAUD_RISK</t>
   </si>
   <si>
@@ -163,10 +166,13 @@
     <t>WEDNESDAY</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>XNA</t>
+  </si>
+  <si>
     <t>SATURDAY</t>
-  </si>
-  <si>
-    <t>XNA</t>
   </si>
   <si>
     <t>High Risk</t>
@@ -527,13 +533,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X23"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -606,22 +612,25 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:25">
       <c r="A2">
         <v>101358</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -639,19 +648,19 @@
         <v>585000</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -663,33 +672,36 @@
         <v>3</v>
       </c>
       <c r="U2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V2">
         <v>5</v>
       </c>
       <c r="W2" t="s">
+        <v>51</v>
+      </c>
+      <c r="X2" t="s">
         <v>50</v>
       </c>
-      <c r="X2" t="s">
-        <v>51</v>
+      <c r="Y2" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:25">
       <c r="A3">
         <v>104600</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -707,19 +719,19 @@
         <v>270000</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R3">
         <v>3</v>
@@ -731,33 +743,36 @@
         <v>2</v>
       </c>
       <c r="U3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V3">
         <v>11</v>
       </c>
       <c r="W3" t="s">
+        <v>51</v>
+      </c>
+      <c r="X3" t="s">
         <v>50</v>
       </c>
-      <c r="X3" t="s">
-        <v>51</v>
+      <c r="Y3" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:25">
       <c r="A4">
         <v>127729</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -775,19 +790,19 @@
         <v>783000</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -799,33 +814,36 @@
         <v>3</v>
       </c>
       <c r="U4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V4">
         <v>14</v>
       </c>
       <c r="W4" t="s">
+        <v>51</v>
+      </c>
+      <c r="X4" t="s">
         <v>50</v>
       </c>
-      <c r="X4" t="s">
-        <v>51</v>
+      <c r="Y4" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:25">
       <c r="A5">
         <v>140949</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -843,19 +861,19 @@
         <v>1530000</v>
       </c>
       <c r="K5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R5">
         <v>1</v>
@@ -867,33 +885,36 @@
         <v>2</v>
       </c>
       <c r="U5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V5">
         <v>12</v>
       </c>
       <c r="W5" t="s">
+        <v>51</v>
+      </c>
+      <c r="X5" t="s">
         <v>50</v>
       </c>
-      <c r="X5" t="s">
-        <v>51</v>
+      <c r="Y5" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:25">
       <c r="A6">
         <v>143454</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -911,19 +932,19 @@
         <v>585000</v>
       </c>
       <c r="K6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P6">
         <v>4</v>
@@ -938,33 +959,36 @@
         <v>2</v>
       </c>
       <c r="U6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V6">
         <v>11</v>
       </c>
       <c r="W6" t="s">
+        <v>51</v>
+      </c>
+      <c r="X6" t="s">
         <v>50</v>
       </c>
-      <c r="X6" t="s">
-        <v>51</v>
+      <c r="Y6" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:25">
       <c r="A7">
         <v>148306</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -982,19 +1006,19 @@
         <v>135000</v>
       </c>
       <c r="K7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R7">
         <v>1</v>
@@ -1006,33 +1030,36 @@
         <v>2</v>
       </c>
       <c r="U7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V7">
         <v>19</v>
       </c>
       <c r="W7" t="s">
+        <v>51</v>
+      </c>
+      <c r="X7" t="s">
         <v>50</v>
       </c>
-      <c r="X7" t="s">
-        <v>51</v>
+      <c r="Y7" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:25">
       <c r="A8">
         <v>189489</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1050,19 +1077,19 @@
         <v>634500</v>
       </c>
       <c r="K8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R8">
         <v>3</v>
@@ -1074,33 +1101,36 @@
         <v>2</v>
       </c>
       <c r="U8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V8">
         <v>13</v>
       </c>
       <c r="W8" t="s">
+        <v>51</v>
+      </c>
+      <c r="X8" t="s">
         <v>50</v>
       </c>
-      <c r="X8" t="s">
-        <v>51</v>
+      <c r="Y8" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:25">
       <c r="A9">
         <v>190812</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1118,19 +1148,19 @@
         <v>328500</v>
       </c>
       <c r="K9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R9">
         <v>1</v>
@@ -1142,33 +1172,36 @@
         <v>2</v>
       </c>
       <c r="U9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V9">
         <v>13</v>
       </c>
       <c r="W9" t="s">
+        <v>51</v>
+      </c>
+      <c r="X9" t="s">
         <v>50</v>
       </c>
-      <c r="X9" t="s">
-        <v>51</v>
+      <c r="Y9" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:25">
       <c r="A10">
         <v>193571</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1186,19 +1219,19 @@
         <v>571500</v>
       </c>
       <c r="K10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R10">
         <v>2</v>
@@ -1210,33 +1243,36 @@
         <v>2</v>
       </c>
       <c r="U10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V10">
         <v>10</v>
       </c>
       <c r="W10" t="s">
+        <v>51</v>
+      </c>
+      <c r="X10" t="s">
         <v>50</v>
       </c>
-      <c r="X10" t="s">
-        <v>51</v>
+      <c r="Y10" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:25">
       <c r="A11">
         <v>206901</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1254,19 +1290,19 @@
         <v>855000</v>
       </c>
       <c r="K11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P11">
         <v>11</v>
@@ -1281,33 +1317,36 @@
         <v>2</v>
       </c>
       <c r="U11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V11">
         <v>10</v>
       </c>
       <c r="W11" t="s">
+        <v>51</v>
+      </c>
+      <c r="X11" t="s">
         <v>50</v>
       </c>
-      <c r="X11" t="s">
-        <v>51</v>
+      <c r="Y11" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:25">
       <c r="A12">
         <v>232520</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1325,19 +1364,19 @@
         <v>1381500</v>
       </c>
       <c r="K12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P12">
         <v>7</v>
@@ -1352,33 +1391,36 @@
         <v>2</v>
       </c>
       <c r="U12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V12">
         <v>13</v>
       </c>
       <c r="W12" t="s">
+        <v>51</v>
+      </c>
+      <c r="X12" t="s">
         <v>50</v>
       </c>
-      <c r="X12" t="s">
-        <v>51</v>
+      <c r="Y12" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:25">
       <c r="A13">
         <v>269611</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1396,19 +1438,19 @@
         <v>720000</v>
       </c>
       <c r="K13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R13">
         <v>2</v>
@@ -1420,33 +1462,36 @@
         <v>1</v>
       </c>
       <c r="U13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V13">
         <v>18</v>
       </c>
       <c r="W13" t="s">
+        <v>51</v>
+      </c>
+      <c r="X13" t="s">
         <v>50</v>
       </c>
-      <c r="X13" t="s">
-        <v>51</v>
+      <c r="Y13" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:25">
       <c r="A14">
         <v>283948</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
         <v>29</v>
-      </c>
-      <c r="E14" t="s">
-        <v>28</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1464,19 +1509,19 @@
         <v>1804500</v>
       </c>
       <c r="K14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P14">
         <v>64</v>
@@ -1491,33 +1536,36 @@
         <v>2</v>
       </c>
       <c r="U14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V14">
         <v>12</v>
       </c>
       <c r="W14" t="s">
+        <v>51</v>
+      </c>
+      <c r="X14" t="s">
         <v>50</v>
       </c>
-      <c r="X14" t="s">
-        <v>51</v>
+      <c r="Y14" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:25">
       <c r="A15">
         <v>303289</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1535,19 +1583,19 @@
         <v>571500</v>
       </c>
       <c r="K15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P15">
         <v>16</v>
@@ -1562,33 +1610,36 @@
         <v>2</v>
       </c>
       <c r="U15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V15">
         <v>11</v>
       </c>
       <c r="W15" t="s">
+        <v>51</v>
+      </c>
+      <c r="X15" t="s">
         <v>50</v>
       </c>
-      <c r="X15" t="s">
-        <v>51</v>
+      <c r="Y15" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:25">
       <c r="A16">
         <v>336749</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
         <v>29</v>
-      </c>
-      <c r="E16" t="s">
-        <v>28</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1606,19 +1657,19 @@
         <v>1080000</v>
       </c>
       <c r="K16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P16">
         <v>5</v>
@@ -1633,33 +1684,36 @@
         <v>3</v>
       </c>
       <c r="U16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V16">
         <v>14</v>
       </c>
       <c r="W16" t="s">
+        <v>51</v>
+      </c>
+      <c r="X16" t="s">
         <v>50</v>
       </c>
-      <c r="X16" t="s">
-        <v>51</v>
+      <c r="Y16" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:25">
       <c r="A17">
         <v>343054</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1677,19 +1731,19 @@
         <v>1215000</v>
       </c>
       <c r="K17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R17">
         <v>2</v>
@@ -1701,33 +1755,36 @@
         <v>1</v>
       </c>
       <c r="U17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V17">
         <v>13</v>
       </c>
       <c r="W17" t="s">
+        <v>51</v>
+      </c>
+      <c r="X17" t="s">
         <v>50</v>
       </c>
-      <c r="X17" t="s">
-        <v>51</v>
+      <c r="Y17" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:25">
       <c r="A18">
         <v>343178</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1745,19 +1802,19 @@
         <v>387000</v>
       </c>
       <c r="K18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R18">
         <v>2</v>
@@ -1769,33 +1826,36 @@
         <v>2</v>
       </c>
       <c r="U18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V18">
         <v>10</v>
       </c>
       <c r="W18" t="s">
+        <v>51</v>
+      </c>
+      <c r="X18" t="s">
         <v>50</v>
       </c>
-      <c r="X18" t="s">
-        <v>51</v>
+      <c r="Y18" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:25">
       <c r="A19">
         <v>347145</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1813,19 +1873,19 @@
         <v>886500</v>
       </c>
       <c r="K19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R19">
         <v>2</v>
@@ -1837,33 +1897,36 @@
         <v>2</v>
       </c>
       <c r="U19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V19">
         <v>12</v>
       </c>
       <c r="W19" t="s">
+        <v>51</v>
+      </c>
+      <c r="X19" t="s">
         <v>50</v>
       </c>
-      <c r="X19" t="s">
-        <v>51</v>
+      <c r="Y19" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:25">
       <c r="A20">
         <v>350785</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1881,19 +1944,19 @@
         <v>634500</v>
       </c>
       <c r="K20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R20">
         <v>2</v>
@@ -1905,33 +1968,36 @@
         <v>2</v>
       </c>
       <c r="U20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V20">
         <v>12</v>
       </c>
       <c r="W20" t="s">
+        <v>51</v>
+      </c>
+      <c r="X20" t="s">
         <v>50</v>
       </c>
-      <c r="X20" t="s">
-        <v>51</v>
+      <c r="Y20" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:25">
       <c r="A21">
         <v>375382</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1949,19 +2015,19 @@
         <v>508500</v>
       </c>
       <c r="K21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P21">
         <v>3</v>
@@ -1976,33 +2042,36 @@
         <v>2</v>
       </c>
       <c r="U21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V21">
         <v>11</v>
       </c>
       <c r="W21" t="s">
+        <v>51</v>
+      </c>
+      <c r="X21" t="s">
         <v>50</v>
       </c>
-      <c r="X21" t="s">
-        <v>51</v>
+      <c r="Y21" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:25">
       <c r="A22">
         <v>411290</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2020,19 +2089,19 @@
         <v>450000</v>
       </c>
       <c r="K22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R22">
         <v>2</v>
@@ -2044,33 +2113,36 @@
         <v>1</v>
       </c>
       <c r="U22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V22">
         <v>15</v>
       </c>
       <c r="W22" t="s">
+        <v>51</v>
+      </c>
+      <c r="X22" t="s">
         <v>50</v>
       </c>
-      <c r="X22" t="s">
-        <v>51</v>
+      <c r="Y22" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:25">
       <c r="A23">
         <v>453794</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2088,19 +2160,19 @@
         <v>900000</v>
       </c>
       <c r="K23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R23">
         <v>2</v>
@@ -2112,16 +2184,19 @@
         <v>2</v>
       </c>
       <c r="U23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V23">
         <v>14</v>
       </c>
       <c r="W23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X23" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/application_data_condensed_unemployed_applicants_df.xlsx
+++ b/application_data_condensed_unemployed_applicants_df.xlsx
@@ -166,7 +166,7 @@
     <t>WEDNESDAY</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t>-</t>
   </si>
   <si>
     <t>XNA</t>

--- a/application_data_condensed_unemployed_applicants_df.xlsx
+++ b/application_data_condensed_unemployed_applicants_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="63">
   <si>
     <t>SK_ID_CURR</t>
   </si>
@@ -167,6 +167,33 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>5:00:00</t>
+  </si>
+  <si>
+    <t>11:00:00</t>
+  </si>
+  <si>
+    <t>14:00:00</t>
+  </si>
+  <si>
+    <t>12:00:00</t>
+  </si>
+  <si>
+    <t>19:00:00</t>
+  </si>
+  <si>
+    <t>13:00:00</t>
+  </si>
+  <si>
+    <t>10:00:00</t>
+  </si>
+  <si>
+    <t>18:00:00</t>
+  </si>
+  <si>
+    <t>15:00:00</t>
   </si>
   <si>
     <t>XNA</t>
@@ -674,17 +701,17 @@
       <c r="U2" t="s">
         <v>45</v>
       </c>
-      <c r="V2">
-        <v>5</v>
+      <c r="V2" t="s">
+        <v>51</v>
       </c>
       <c r="W2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="X2" t="s">
         <v>50</v>
       </c>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -745,17 +772,17 @@
       <c r="U3" t="s">
         <v>46</v>
       </c>
-      <c r="V3">
-        <v>11</v>
+      <c r="V3" t="s">
+        <v>52</v>
       </c>
       <c r="W3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="X3" t="s">
         <v>50</v>
       </c>
       <c r="Y3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -816,17 +843,17 @@
       <c r="U4" t="s">
         <v>47</v>
       </c>
-      <c r="V4">
-        <v>14</v>
+      <c r="V4" t="s">
+        <v>53</v>
       </c>
       <c r="W4" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="X4" t="s">
         <v>50</v>
       </c>
       <c r="Y4" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -887,17 +914,17 @@
       <c r="U5" t="s">
         <v>46</v>
       </c>
-      <c r="V5">
-        <v>12</v>
+      <c r="V5" t="s">
+        <v>54</v>
       </c>
       <c r="W5" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="X5" t="s">
         <v>50</v>
       </c>
       <c r="Y5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -961,17 +988,17 @@
       <c r="U6" t="s">
         <v>46</v>
       </c>
-      <c r="V6">
-        <v>11</v>
+      <c r="V6" t="s">
+        <v>52</v>
       </c>
       <c r="W6" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="X6" t="s">
         <v>50</v>
       </c>
       <c r="Y6" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1032,17 +1059,17 @@
       <c r="U7" t="s">
         <v>48</v>
       </c>
-      <c r="V7">
-        <v>19</v>
+      <c r="V7" t="s">
+        <v>55</v>
       </c>
       <c r="W7" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="X7" t="s">
         <v>50</v>
       </c>
       <c r="Y7" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1103,17 +1130,17 @@
       <c r="U8" t="s">
         <v>46</v>
       </c>
-      <c r="V8">
-        <v>13</v>
+      <c r="V8" t="s">
+        <v>56</v>
       </c>
       <c r="W8" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="X8" t="s">
         <v>50</v>
       </c>
       <c r="Y8" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1174,17 +1201,17 @@
       <c r="U9" t="s">
         <v>49</v>
       </c>
-      <c r="V9">
-        <v>13</v>
+      <c r="V9" t="s">
+        <v>56</v>
       </c>
       <c r="W9" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="X9" t="s">
         <v>50</v>
       </c>
       <c r="Y9" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1245,17 +1272,17 @@
       <c r="U10" t="s">
         <v>45</v>
       </c>
-      <c r="V10">
-        <v>10</v>
+      <c r="V10" t="s">
+        <v>57</v>
       </c>
       <c r="W10" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="X10" t="s">
         <v>50</v>
       </c>
       <c r="Y10" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1319,17 +1346,17 @@
       <c r="U11" t="s">
         <v>48</v>
       </c>
-      <c r="V11">
-        <v>10</v>
+      <c r="V11" t="s">
+        <v>57</v>
       </c>
       <c r="W11" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="X11" t="s">
         <v>50</v>
       </c>
       <c r="Y11" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1393,17 +1420,17 @@
       <c r="U12" t="s">
         <v>46</v>
       </c>
-      <c r="V12">
-        <v>13</v>
+      <c r="V12" t="s">
+        <v>56</v>
       </c>
       <c r="W12" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="X12" t="s">
         <v>50</v>
       </c>
       <c r="Y12" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1464,17 +1491,17 @@
       <c r="U13" t="s">
         <v>48</v>
       </c>
-      <c r="V13">
-        <v>18</v>
+      <c r="V13" t="s">
+        <v>58</v>
       </c>
       <c r="W13" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="X13" t="s">
         <v>50</v>
       </c>
       <c r="Y13" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1538,17 +1565,17 @@
       <c r="U14" t="s">
         <v>47</v>
       </c>
-      <c r="V14">
-        <v>12</v>
+      <c r="V14" t="s">
+        <v>54</v>
       </c>
       <c r="W14" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="X14" t="s">
         <v>50</v>
       </c>
       <c r="Y14" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1612,17 +1639,17 @@
       <c r="U15" t="s">
         <v>48</v>
       </c>
-      <c r="V15">
-        <v>11</v>
+      <c r="V15" t="s">
+        <v>52</v>
       </c>
       <c r="W15" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="X15" t="s">
         <v>50</v>
       </c>
       <c r="Y15" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1686,17 +1713,17 @@
       <c r="U16" t="s">
         <v>47</v>
       </c>
-      <c r="V16">
-        <v>14</v>
+      <c r="V16" t="s">
+        <v>53</v>
       </c>
       <c r="W16" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="X16" t="s">
         <v>50</v>
       </c>
       <c r="Y16" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -1757,17 +1784,17 @@
       <c r="U17" t="s">
         <v>45</v>
       </c>
-      <c r="V17">
-        <v>13</v>
+      <c r="V17" t="s">
+        <v>56</v>
       </c>
       <c r="W17" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="X17" t="s">
         <v>50</v>
       </c>
       <c r="Y17" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -1828,17 +1855,17 @@
       <c r="U18" t="s">
         <v>46</v>
       </c>
-      <c r="V18">
-        <v>10</v>
+      <c r="V18" t="s">
+        <v>57</v>
       </c>
       <c r="W18" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="X18" t="s">
         <v>50</v>
       </c>
       <c r="Y18" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -1899,17 +1926,17 @@
       <c r="U19" t="s">
         <v>48</v>
       </c>
-      <c r="V19">
-        <v>12</v>
+      <c r="V19" t="s">
+        <v>54</v>
       </c>
       <c r="W19" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="X19" t="s">
         <v>50</v>
       </c>
       <c r="Y19" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -1970,17 +1997,17 @@
       <c r="U20" t="s">
         <v>48</v>
       </c>
-      <c r="V20">
-        <v>12</v>
+      <c r="V20" t="s">
+        <v>54</v>
       </c>
       <c r="W20" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="X20" t="s">
         <v>50</v>
       </c>
       <c r="Y20" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2044,17 +2071,17 @@
       <c r="U21" t="s">
         <v>45</v>
       </c>
-      <c r="V21">
-        <v>11</v>
+      <c r="V21" t="s">
+        <v>52</v>
       </c>
       <c r="W21" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="X21" t="s">
         <v>50</v>
       </c>
       <c r="Y21" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2115,17 +2142,17 @@
       <c r="U22" t="s">
         <v>46</v>
       </c>
-      <c r="V22">
-        <v>15</v>
+      <c r="V22" t="s">
+        <v>59</v>
       </c>
       <c r="W22" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="X22" t="s">
         <v>50</v>
       </c>
       <c r="Y22" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2186,17 +2213,17 @@
       <c r="U23" t="s">
         <v>50</v>
       </c>
-      <c r="V23">
-        <v>14</v>
+      <c r="V23" t="s">
+        <v>53</v>
       </c>
       <c r="W23" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="X23" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="Y23" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/application_data_condensed_unemployed_applicants_df.xlsx
+++ b/application_data_condensed_unemployed_applicants_df.xlsx
@@ -169,7 +169,7 @@
     <t>-</t>
   </si>
   <si>
-    <t>5:00:00</t>
+    <t>05:00:00</t>
   </si>
   <si>
     <t>11:00:00</t>
